--- a/해커톤/최종규격/해그린달_최종규격.xlsx
+++ b/해커톤/최종규격/해그린달_최종규격.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\Coala_study\해커톤\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS43VR\Documents\Coala_study\해커톤\최종규격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112D22D1-73CD-4903-95C1-BD56E2DF4A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45474D4-ACBE-4F27-AE05-248128F7FC90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14325" yWindow="1740" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>썸네일</t>
   </si>
@@ -46,117 +46,6 @@
     <t>영상길이</t>
   </si>
   <si>
-    <t>SUB) 내가 가장 잘한 일</t>
-  </si>
-  <si>
-    <t>SUB) 이맘때쯤 당신에게 필요한 영상 ver.11월</t>
-  </si>
-  <si>
-    <t>SUB) asmr일상, 따뜻한 겨울을 보내고 있어요.</t>
-  </si>
-  <si>
-    <t>SUB) 돈들이지 않고 즐거운시간을 보내는 방법</t>
-  </si>
-  <si>
-    <t>SUB) 행복하기 위해 나는 여행중 입니다.</t>
-  </si>
-  <si>
-    <t>SUB) 여행 말고 휴식, 제주에서</t>
-  </si>
-  <si>
-    <t>SUB) 내가 아침에 청소를 끝내는 이유</t>
-  </si>
-  <si>
-    <t>SUB) 비오는날 집에서 뭐하면서 보낼까? 궁금한 하루</t>
-  </si>
-  <si>
-    <t>SUB) 비오는날 집에서 보내는 하루 with. 삼성 건조기 그랑데</t>
-  </si>
-  <si>
-    <t>SUB) 우리집 체리 대축제🍒(미국 북서부 체리)</t>
-  </si>
-  <si>
-    <t>SUB) 여름이 좋아지는 영상 ver.7월</t>
-  </si>
-  <si>
-    <t>SUB) 간편한 심야식당 메뉴 with. 백설컵감자전, 천억막걸리</t>
-  </si>
-  <si>
-    <t>SUB) 보기만해도 배고파지는 영상</t>
-  </si>
-  <si>
-    <t>SUB) 나의 6월을 소개합니다.</t>
-  </si>
-  <si>
-    <t>SUB) 나를 행복하게 하는 것들</t>
-  </si>
-  <si>
-    <t>SUB) 청소하고 싶어지는 영상 브이로그</t>
-  </si>
-  <si>
-    <t>ENG) 남의집 냉장고 살림 구경하기 (feat. LG DIOS 얼음정수기냉장고)</t>
-  </si>
-  <si>
-    <t>SUB) 우리집 ASMR 홈카페에 놀러오세요.</t>
-  </si>
-  <si>
-    <t>SUB) 하루 한 시간씩 혼자만의 시간 갖기</t>
-  </si>
-  <si>
-    <t>ENG) 에어프라이어 13가지 요리 레시피모음</t>
-  </si>
-  <si>
-    <t>SUB) 나만의 시간을 예쁘게 보내는 방법</t>
-  </si>
-  <si>
-    <t>ENG) 감성 브이로그 카메라, 촬영방법 공개 (feat. 소니 a6400)</t>
-  </si>
-  <si>
-    <t>SUB) 엄마의 하루는 ?</t>
-  </si>
-  <si>
-    <t>SUB) 짜파게티로 짜장면 만들기!</t>
-  </si>
-  <si>
-    <t>SUB) 어렵게 성공했던 딸기탕후루.</t>
-  </si>
-  <si>
-    <t>SUB) 엄마가 만들어준 따뜻한 집밥.</t>
-  </si>
-  <si>
-    <t>SUB) 에어프라이어 11가지 요리 레시피모음! 에어프라이어 청소하는법, 종이호일 사용법</t>
-  </si>
-  <si>
-    <t>SUB) 한달도 거뜬한 매우간단한 대파보관법</t>
-  </si>
-  <si>
-    <t>ENG) 우드식기 오일코팅 관리법</t>
-  </si>
-  <si>
-    <t>ENG) 다정한 일상들 모음</t>
-  </si>
-  <si>
-    <t>미니멀라이프 버리기 실천하기, 홈카페 애플시나몬라떼만들기, 육아브이로그, Minimal  Life, ミニマライフ</t>
-  </si>
-  <si>
-    <t>SUB) 나를 사랑하는 가장 쉬운방법</t>
-  </si>
-  <si>
-    <t>SUB) 나의 기분좋은 루틴 찾아보기</t>
-  </si>
-  <si>
-    <t>집순이일상, 홈파티하고 시금치피자만들기, 마크라메 만들기, Make a Macrame, Spinach tortilla Pizza  ホウレンソウトルティーヤピザ , ブイログ</t>
-  </si>
-  <si>
-    <t>SUB) 예쁜 집꾸미기 인테리어, 랜선집들이</t>
-  </si>
-  <si>
-    <t>vlog 후라이팬으로 군고구마 만들기, 대하구이 파피요트 Cooking en Papillote, Vログ</t>
-  </si>
-  <si>
-    <t>SUB) 궁금한 집순이 아줌마의 하루</t>
-  </si>
-  <si>
     <t>12:46</t>
   </si>
   <si>
@@ -266,6 +155,14 @@
   </si>
   <si>
     <t>14:03</t>
+  </si>
+  <si>
+    <t>일상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독자 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -304,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -327,13 +224,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -674,15 +585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,16 +618,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
       </c>
       <c r="D2">
         <v>552932</v>
@@ -731,18 +645,21 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
       </c>
       <c r="D3">
         <v>546913</v>
@@ -757,18 +674,21 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
       </c>
       <c r="D4">
         <v>636068</v>
@@ -783,18 +703,21 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.5</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
       </c>
       <c r="D5">
         <v>1337522</v>
@@ -809,18 +732,21 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
       </c>
       <c r="D6">
         <v>353242</v>
@@ -835,18 +761,21 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.5</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
       </c>
       <c r="D7">
         <v>277159</v>
@@ -861,18 +790,21 @@
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.5</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
+      <c r="B8">
         <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
       </c>
       <c r="D8">
         <v>1226117</v>
@@ -887,18 +819,21 @@
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.5</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
       </c>
       <c r="D9">
         <v>916330</v>
@@ -913,18 +848,21 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
       </c>
       <c r="D10">
         <v>800078</v>
@@ -939,18 +877,21 @@
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.5</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
       <c r="D11">
         <v>263889</v>
@@ -965,18 +906,21 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.5</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
       </c>
       <c r="D12">
         <v>276553</v>
@@ -991,18 +935,21 @@
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.5</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
       </c>
       <c r="D13">
         <v>297236</v>
@@ -1017,18 +964,21 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.5</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
       </c>
       <c r="D14">
         <v>568403</v>
@@ -1043,18 +993,21 @@
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.5</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
       </c>
       <c r="D15">
         <v>638982</v>
@@ -1069,18 +1022,21 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
       </c>
       <c r="D16">
         <v>808597</v>
@@ -1095,18 +1051,21 @@
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.5</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
       </c>
       <c r="D17">
         <v>3432488</v>
@@ -1121,18 +1080,21 @@
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
       </c>
       <c r="D18">
         <v>537861</v>
@@ -1147,18 +1109,21 @@
         <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.5</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
       </c>
       <c r="D19">
         <v>586040</v>
@@ -1173,18 +1138,21 @@
         <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.5</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
       </c>
       <c r="D20">
         <v>3144453</v>
@@ -1199,18 +1167,21 @@
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.5</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
       </c>
       <c r="D21">
         <v>813660</v>
@@ -1225,18 +1196,21 @@
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.5</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
       </c>
       <c r="D22">
         <v>751887</v>
@@ -1251,18 +1225,21 @@
         <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1.5</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
       </c>
       <c r="D23">
         <v>431339</v>
@@ -1277,18 +1254,21 @@
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1.5</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
       </c>
       <c r="D24">
         <v>687127</v>
@@ -1303,18 +1283,21 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1.5</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
       </c>
       <c r="D25">
         <v>462835</v>
@@ -1329,18 +1312,21 @@
         <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.5</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
       </c>
       <c r="D26">
         <v>267032</v>
@@ -1355,18 +1341,21 @@
         <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1.5</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
       </c>
       <c r="D27">
         <v>514827</v>
@@ -1381,18 +1370,21 @@
         <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1.5</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
       </c>
       <c r="D28">
         <v>1063349</v>
@@ -1407,18 +1399,21 @@
         <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1.5</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
       </c>
       <c r="D29">
         <v>922348</v>
@@ -1433,18 +1428,21 @@
         <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1.5</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
       </c>
       <c r="D30">
         <v>817151</v>
@@ -1459,18 +1457,21 @@
         <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I30">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1.5</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
       </c>
       <c r="D31">
         <v>424046</v>
@@ -1485,18 +1486,21 @@
         <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I31">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1.5</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
       </c>
       <c r="D32">
         <v>261269</v>
@@ -1511,18 +1515,21 @@
         <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I32">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.5</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
       </c>
       <c r="D33">
         <v>1698233</v>
@@ -1537,18 +1544,21 @@
         <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I33">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2.5</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
       </c>
       <c r="D34">
         <v>1556282</v>
@@ -1563,18 +1573,21 @@
         <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I34">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.5</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
       </c>
       <c r="D35">
         <v>142041</v>
@@ -1589,18 +1602,21 @@
         <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I35">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.5</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
       </c>
       <c r="D36">
         <v>427085</v>
@@ -1615,18 +1631,21 @@
         <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I36">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.5</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
       </c>
       <c r="D37">
         <v>181589</v>
@@ -1641,18 +1660,21 @@
         <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I37">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1.5</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
       </c>
       <c r="D38">
         <v>146945</v>
@@ -1667,7 +1689,10 @@
         <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>44</v>
+      </c>
+      <c r="I38">
+        <v>1010000</v>
       </c>
     </row>
   </sheetData>
